--- a/db/queries/predicted/PacificIslandLandbirds-N1-N1-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/PacificIslandLandbirds-N1-N1-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -504,14 +499,9 @@
           <t>tab_naturalness_modifier</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -574,14 +564,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_stations'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -644,14 +629,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'island'}, {'table source item': '1'}, {'table': 'tbl_locations'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -715,14 +695,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'island'}, {'select element': '1'}, {'function': 'count'}, {'column': 'site_id'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'group by': '1'}, {'column': 'island'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -786,14 +761,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_density'}, {'where': '1'}, {'predicate': '1'}, {'column': 'half_meter'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -857,14 +827,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'station_id'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'group by': '1'}, {'column': 'station_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -928,14 +893,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'organization'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'group by': '1'}, {'column': 'organization'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -999,14 +959,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'zip_code'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'where': '1'}, {'predicate': '1'}, {'column': 'city'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1070,14 +1025,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'event_id'}, {'select element': '1'}, {'column': 'station_id'}, {'select element': '1'}, {'column': 'start_date'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'repeat_sample'}, {'predicate': '1'}, {'column': 'verified_by'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1142,14 +1092,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'habitat'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1214,14 +1159,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'habitat'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'group by': '1'}, {'column': 'habitat'}]</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
@@ -1286,14 +1226,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'event_id'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'group by': '1'}, {'column': 'event_id'}, {'having': '1'}, {'predicate': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
@@ -1359,14 +1294,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'scientific_name'}, {'select element': '1'}, {'column': 'common_name'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'group by': '1'}, {'column': 'scientific_name'}, {'group by': '1'}, {'column': 'common_name'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
@@ -1433,14 +1363,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'canopy_comp'}, {'select element': '1'}, {'column': 'understory_comp'}, {'table source item': '1'}, {'table': 'tbl_habitat'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'entered_by'}, {'group by': '1'}, {'column': 'canopy_comp'}, {'group by': '1'}, {'column': 'understory_comp'}, {'order by': '1'}, {'function': 'count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
@@ -1505,14 +1430,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'cloud'}, {'select element': '1'}, {'column': 'rain'}, {'select element': '1'}, {'column': 'wind'}, {'select element': '1'}, {'column': 'gust'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_event_details'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'updated_by'}, {'predicate': '1'}, {'column': 'entered_by'}]</t>
-        </is>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
@@ -1576,14 +1496,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'observation_id'}, {'table source item': '1'}, {'table': 'tbl_detections'}, {'group by': '1'}, {'column': 'observation_id'}, {'having': '1'}, {'predicate': '1'}, {'function': 'count'}, {'column': 'detection_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
@@ -1646,14 +1561,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'avg'}, {'column': 'distance'}, {'table source item': '1'}, {'table': 'tbl_detections'}]</t>
-        </is>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
@@ -1719,14 +1629,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'common_name'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_detections'}, {'predicate': '1'}, {'column': 'observation_id'}, {'column': 'observation_id'}, {'order by': '1'}, {'column': 'distance'}]</t>
-        </is>
-      </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
@@ -1791,14 +1696,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'common_name'}, {'select element': '1'}, {'column': 'alternate_name'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'join': '1'}, {'table source item': '1'}, {'table': 'xref_species_alternate_names'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'family'}]</t>
-        </is>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
@@ -1861,14 +1761,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'source'}, {'table source item': '1'}, {'table': 'tlu_species'}]</t>
-        </is>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
@@ -1933,14 +1828,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'station'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_stations_utms'}, {'predicate': '1'}, {'column': 'station_id'}, {'column': 'station_id'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'x_final'}, {'predicate': '1'}, {'column': 'y_final'}]</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
@@ -2004,14 +1894,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'position_title'}, {'select element': '1'}, {'column': 'organization'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'first_name'}, {'predicate': '1'}, {'column': 'last_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
@@ -2076,14 +1961,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'island'}, {'select element': '1'}, {'column': 'site_name'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_sites'}, {'predicate': '1'}, {'column': 'site_id'}, {'column': 'site_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
@@ -2147,14 +2027,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'island'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'where': '1'}, {'predicate': '1'}, {'column': 'loc_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
@@ -2219,14 +2094,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'family'}, {'select element': '1'}, {'column': 'scientific_name'}, {'select element': '1'}, {'column': 'common_name'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'where': '1'}, {'predicate': '1'}, {'column': 'habitat'}]</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
@@ -2292,14 +2162,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'datum'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_stations_utms'}, {'where': '1'}, {'predicate': '1'}, {'column': 'datum'}, {'group by': '1'}, {'column': 'datum'}]</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
@@ -2363,14 +2228,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_event_details'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'cloud'}]</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
@@ -2435,14 +2295,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_event_details'}, {'where': '1'}, {'predicate': '1'}, {'subquery': '1'}, {'select element': '1'}, {'function': 'max'}, {'column': 'wind'}, {'table source item': '1'}, {'table': 'tbl_event_details'}, {'column': 'wind'}]</t>
-        </is>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
@@ -2506,14 +2361,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'island'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_transect'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'predicate': '1'}, {'column': 'transect_id'}, {'column': 'transect_id'}, {'group by': '1'}, {'column': 'island'}]</t>
-        </is>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
@@ -2579,14 +2429,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'island'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_transect'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'predicate': '1'}, {'column': 'transect_id'}, {'column': 'transect_id'}, {'group by': '1'}, {'column': 'island'}, {'order by': '1'}, {'column': 'station_count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
@@ -2652,14 +2497,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'family'}, {'select element': '1'}, {'column': 'species_code'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_event_details'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'rain'}]</t>
-        </is>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
@@ -2726,14 +2566,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'scientific_name'}, {'select element': '1'}, {'column': 'common_name'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'xref_event_contacts'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'predicate': '1'}, {'column': 'contact_id'}, {'column': 'contact_id'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'last_name'}, {'predicate': '1'}, {'column': 'first_name'}, {'order by': '1'}, {'column': 'scientific_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
@@ -2800,14 +2635,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'station'}, {'select element': '1'}, {'column': 'common_name'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'station_id'}, {'column': 'station_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'where': '1'}, {'logical operator': 'or'}, {'predicate': '1'}, {'column': 'station'}, {'predicate': '1'}, {'column': 'station'}, {'group by': '1'}, {'column': 'station'}, {'group by': '1'}, {'column': 'common_name'}, {'order by': '1'}, {'column': 'station'}]</t>
-        </is>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
@@ -2873,14 +2703,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'station'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'station_id'}, {'column': 'station_id'}, {'group by': '1'}, {'column': 'station'}, {'order by': '1'}, {'column': 'event_count'}]</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
@@ -2945,14 +2770,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'lat_final'}, {'select element': '1'}, {'column': 'long_final'}, {'select element': '1'}, {'column': 'station'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'order by': '1'}, {'column': 'lat_final'}]</t>
-        </is>
-      </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
@@ -3017,14 +2837,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'count'}, {'column': 'station_id'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'station_id'}, {'column': 'station_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'common_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
@@ -3088,14 +2903,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'function': 'sum'}, {'column': 'sighted'}, {'function': 'count'}, {'column': 'station_id'}, {'table source item': '1'}, {'subquery': '1'}, {'select element': '1'}, {'column': 'station_id'}, {'select element': '1'}, {'case': '1'}, {'predicate': '1'}, {'column': 'common_name'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'station_id'}, {'column': 'station_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
@@ -3162,14 +2972,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'last_name'}, {'select element': '1'}, {'column': 'first_name'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'join': '1'}, {'table source item': '1'}, {'table': 'xref_event_contacts'}, {'predicate': '1'}, {'column': 'contact_id'}, {'column': 'contact_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'organization'}, {'group by': '1'}, {'column': 'last_name'}, {'group by': '1'}, {'column': 'first_name'}, {'group by': '1'}, {'column': 'organization'}, {'order by': '1'}, {'column': 'last_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
@@ -3234,14 +3039,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'scientific_name'}, {'select element': '1'}, {'column': 'common_name'}, {'select element': '1'}, {'function': 'avg'}, {'column': 'canopy_height'}, {'function': 'function'}, {'table source item': '1'}, {'table': 'tbl_habitat'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'group by': '1'}, {'column': 'scientific_name'}, {'group by': '1'}, {'column': 'common_name'}, {'order by': '1'}, {'column': 'scientific_name'}]</t>
-        </is>
-      </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
@@ -3308,14 +3108,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'island'}, {'select element': '1'}, {'column': 'site_name'}, {'select element': '1'}, {'column': 'loc_name'}, {'select element': '1'}, {'column': 'transect'}, {'select element': '1'}, {'column': 'transect_type'}, {'select element': '1'}, {'column': 'station'}, {'select element': '1'}, {'column': 'lat_final'}, {'select element': '1'}, {'column': 'event_id'}, {'select element': '1'}, {'column': 'last_name'}, {'select element': '1'}, {'column': 'event_notes'}, {'select element': '1'}, {'column': 'family'}, {'select element': '1'}, {'column': 'scientific_name'}, {'select element': '1'}, {'column': 'common_name'}, {'select element': '1'}, {'column': 'alternate_name'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_sites'}, {'predicate': '1'}, {'column': 'site_id'}, {'column': 'site_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_transect'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'predicate': '1'}, {'column': 'transect_id'}, {'column': 'transect_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'station_id'}, {'column': 'station_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'xref_event_contacts'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'predicate': '1'}, {'column': 'contact_id'}, {'column': 'contact_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'xref_species_alternate_names'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}]</t>
-        </is>
-      </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
@@ -3383,11 +3178,6 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'island'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'tbl_locations'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_transect'}, {'predicate': '1'}, {'column': 'location_id'}, {'column': 'location_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_stations'}, {'predicate': '1'}, {'column': 'transect_id'}, {'column': 'transect_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_events'}, {'predicate': '1'}, {'column': 'station_id'}, {'column': 'station_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'xref_event_contacts'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_contacts'}, {'predicate': '1'}, {'column': 'contact_id'}, {'column': 'contact_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tbl_observations'}, {'predicate': '1'}, {'column': 'event_id'}, {'column': 'event_id'}, {'join': '1'}, {'table source item': '1'}, {'table': 'tlu_species'}, {'predicate': '1'}, {'column': 'species_id'}, {'column': 'species_id'}, {'where': '1'}, {'predicate': '1'}, {'column': 'common_name'}, {'group by': '1'}, {'column': 'island'}, {'order by': '1'}, {'column': 'kingfisher_count'}]</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
